--- a/HW3/NVSim/Part1_Results/total_area_part1.xlsx
+++ b/HW3/NVSim/Part1_Results/total_area_part1.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gbccuser/CodeProjects/Tufts/EECE0193/HW3/NVSim/Part1_Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{C1920824-8FE4-DB4A-A0E5-18C8A5DE1986}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E5E66B6-AAE2-F24D-8337-A26C88AA3B4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="total_area_part1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>output_cache1024_levels2</t>
   </si>
@@ -121,12 +122,72 @@
   </si>
   <si>
     <t>Cache Capacity and Levels Per Cell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">size1024K_levels16 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">size1024K_levels4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">size128K_levels16 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">size128K_levels4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">size16K_levels16 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">size16K_levels4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">size2048K_levels16 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">size2048K_levels4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">size256K_levels16 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">size256K_levels4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">size32K_levels16 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">size32K_levels4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">size4096K_levels16 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">size4096K_levels4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">size512K_levels16 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">size512K_levels4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">size64K_levels16 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">size64K_levels4 </t>
+  </si>
+  <si>
+    <t>Total Area (mm^2)</t>
+  </si>
+  <si>
+    <t>Capacity and Number of Levels per Cell</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1157,7 +1218,481 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Capacity (KB) and Number of Levels per Cell</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t>  vs Total Area (mm^2)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>size16K_levels16 </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>size16K_levels4 </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>size32K_levels16 </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>size32K_levels4 </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>size64K_levels16 </c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>size64K_levels4 </c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>size128K_levels16 </c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>size128K_levels4 </c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>size256K_levels16 </c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>size256K_levels4 </c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>size512K_levels16 </c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>size512K_levels4 </c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>size1024K_levels16 </c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>size1024K_levels4 </c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>size2048K_levels16 </c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>size2048K_levels4 </c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>size4096K_levels16 </c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>size4096K_levels4 </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0.14499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.21299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.21299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.14599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.14799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.14799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.16200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.16200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.20300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.20300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.189</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.29699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.378</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.378</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.41299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.41299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.68700000000000006</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D380-7F42-882F-C09D0656BBD9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="1809130319"/>
+        <c:axId val="1809131967"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="1809130319"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1809131967"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1809131967"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1809130319"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1691,20 +2226,514 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>774700</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1712,6 +2741,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39950B02-5C0B-E74F-902C-88C3CD920685}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81E63674-0D2A-6B4B-BEEB-FC9E22C8223D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2028,11 +3098,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2302,4 +3372,175 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74FCFC6E-E8AA-7242-9B4E-A1D6105C88EF}">
+  <dimension ref="A1:B19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="33.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2">
+        <v>0.14499999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3">
+        <v>0.21299999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4">
+        <v>0.21299999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5">
+        <v>0.14799999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6">
+        <v>0.14599999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7">
+        <v>0.14799999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8">
+        <v>0.14799999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9">
+        <v>0.16200000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10">
+        <v>0.16200000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11">
+        <v>0.20300000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12">
+        <v>0.20300000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13">
+        <v>0.189</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14">
+        <v>0.29699999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15">
+        <v>0.378</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16">
+        <v>0.378</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17">
+        <v>0.41299999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18">
+        <v>0.41299999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19">
+        <v>0.68700000000000006</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>